--- a/LF/Confirmation/Cote d'Ivoire/ci_202302_lf_conf_1_sites.xlsx
+++ b/LF/Confirmation/Cote d'Ivoire/ci_202302_lf_conf_1_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\Confirmation\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADB30D2-F266-4D86-BE03-3F76D491BAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB040D-7845-4B40-8663-24E9D659E472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="353">
   <si>
     <t>type</t>
   </si>
@@ -821,9 +821,6 @@
     <t>139 (EPP ABEANOU 2)</t>
   </si>
   <si>
-    <t>140 (EPP ABO N.GUESSANKRO)</t>
-  </si>
-  <si>
     <t>141 (EPP AGBA BAYASSOU 2)</t>
   </si>
   <si>
@@ -860,9 +857,6 @@
     <t>152 (EPP DJANGO KOKOKRO)</t>
   </si>
   <si>
-    <t>153 (EPP DJO N.GATTAKRO)</t>
-  </si>
-  <si>
     <t>154 (EPP ESSEKOKOKRO)</t>
   </si>
   <si>
@@ -884,15 +878,9 @@
     <t>160 (EPP KOUADIOBLEKRO 1)</t>
   </si>
   <si>
-    <t>161 (EPP KOUAME N.ZIKRO)</t>
-  </si>
-  <si>
     <t>162 (EPP NANGOKRO)</t>
   </si>
   <si>
-    <t>163 (EPP N.DAMIEN)</t>
-  </si>
-  <si>
     <t>164 (EPP SALE BALEKRO)</t>
   </si>
   <si>
@@ -953,18 +941,9 @@
     <t>183 (EPP ESSAN KOUAKOUKRO)</t>
   </si>
   <si>
-    <t>184 (EPP GBANAN N.GATTAKRO)</t>
-  </si>
-  <si>
-    <t>185 (EPP GUIMBO N.DOLIKRO)</t>
-  </si>
-  <si>
     <t>186 (EPP KONAN OUFFOUEKRO)</t>
   </si>
   <si>
-    <t>187 (EPP KOUADIO N.DRIKRO)</t>
-  </si>
-  <si>
     <t>188 (EPP KOUASSI-KOUASSIKRO 1)</t>
   </si>
   <si>
@@ -983,18 +962,6 @@
     <t>193 (EPP NANDEKRO)</t>
   </si>
   <si>
-    <t>194 (EPP N.DRI KOUADIOKRO 1)</t>
-  </si>
-  <si>
-    <t>195 (EPP N.DRI KOUADIOKRO 2)</t>
-  </si>
-  <si>
-    <t>196 (EPP N.GASSO- KOFFIKRO)</t>
-  </si>
-  <si>
-    <t>197 (EPP POKOU N.GATTA)</t>
-  </si>
-  <si>
     <t>198 (EPP SAHAGUI KONANKRO)</t>
   </si>
   <si>
@@ -1007,9 +974,6 @@
     <t>201 (EPP SASSAOKRO)</t>
   </si>
   <si>
-    <t>202 (EPP YOBOUE N.DOLIKRO)</t>
-  </si>
-  <si>
     <t>(2023 Fev) 1. Recartographie FL - Formulaire Site</t>
   </si>
   <si>
@@ -1059,6 +1023,81 @@
   </si>
   <si>
     <t>regex(.,'^[0-9]{2}$')</t>
+  </si>
+  <si>
+    <t>N'ZI</t>
+  </si>
+  <si>
+    <t>EPP ABO N'GUESSANKRO</t>
+  </si>
+  <si>
+    <t>EPP DJO N'GATTAKRO</t>
+  </si>
+  <si>
+    <t>EPP KOUAME N'ZIKRO</t>
+  </si>
+  <si>
+    <t>EPP N'DAMIEN</t>
+  </si>
+  <si>
+    <t>EPP GBANAN N'GATTAKRO</t>
+  </si>
+  <si>
+    <t>EPP GUIMBO N'DOLIKRO</t>
+  </si>
+  <si>
+    <t>EPP KOUADIO N'DRIKRO</t>
+  </si>
+  <si>
+    <t>EPP N'DRI KOUADIOKRO 1</t>
+  </si>
+  <si>
+    <t>EPP N'DRI KOUADIOKRO 2</t>
+  </si>
+  <si>
+    <t>EPP N'GASSO- KOFFIKRO</t>
+  </si>
+  <si>
+    <t>EPP POKOU N'GATTA</t>
+  </si>
+  <si>
+    <t>EPP YOBOUE N'DOLIKRO</t>
+  </si>
+  <si>
+    <t>140 (EPP ABO N'GUESSANKRO)</t>
+  </si>
+  <si>
+    <t>153 (EPP DJO N'GATTAKRO)</t>
+  </si>
+  <si>
+    <t>161 (EPP KOUAME N'ZIKRO)</t>
+  </si>
+  <si>
+    <t>163 (EPP N'DAMIEN)</t>
+  </si>
+  <si>
+    <t>184 (EPP GBANAN N'GATTAKRO)</t>
+  </si>
+  <si>
+    <t>185 (EPP GUIMBO N'DOLIKRO)</t>
+  </si>
+  <si>
+    <t>187 (EPP KOUADIO N'DRIKRO)</t>
+  </si>
+  <si>
+    <t>194 (EPP N'DRI KOUADIOKRO 1)</t>
+  </si>
+  <si>
+    <t>195 (EPP N'DRI KOUADIOKRO 2)</t>
+  </si>
+  <si>
+    <t>196 (EPP N'GASSO- KOFFIKRO)</t>
+  </si>
+  <si>
+    <t>197 (EPP POKOU N'GATTA)</t>
+  </si>
+  <si>
+    <t>202 (EPP YOBOUE N'DOLIKRO)</t>
   </si>
 </sst>
 </file>
@@ -1761,14 +1800,14 @@
         <v>19</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="32" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>20</v>
@@ -1797,7 +1836,7 @@
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="22" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="17"/>
@@ -1885,7 +1924,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="22" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="17"/>
@@ -1917,7 +1956,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>40</v>
@@ -1933,7 +1972,7 @@
         <v>43</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17" t="s">
@@ -1965,7 +2004,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -1988,10 +2027,10 @@
         <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="K9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
@@ -2012,7 +2051,7 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="22" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="17"/>
@@ -2040,7 +2079,7 @@
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="22" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="16"/>
@@ -2076,7 +2115,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="24"/>
       <c r="K12" s="25" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L12" s="26"/>
       <c r="M12" s="17" t="s">
@@ -2098,7 +2137,7 @@
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="22" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="16"/>
@@ -2112,7 +2151,7 @@
         <v>69</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L13" s="26"/>
       <c r="M13" s="17" t="s">
@@ -2139,14 +2178,14 @@
         <v>74</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="24"/>
       <c r="K14" s="25" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L14" s="26"/>
       <c r="M14" s="17" t="s">
@@ -2168,11 +2207,11 @@
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="22" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F15" s="22"/>
       <c r="K15" s="25" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="M15" s="19"/>
     </row>
@@ -2262,7 +2301,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8:E10"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2359,10 +2398,10 @@
         <v>207</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>207</v>
+        <v>328</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>207</v>
+        <v>328</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="3"/>
@@ -3215,10 +3254,10 @@
         <v>208</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>208</v>
+        <v>329</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>208</v>
+        <v>329</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="3" t="s">
@@ -3449,10 +3488,10 @@
         <v>209</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="3" t="s">
@@ -3593,10 +3632,10 @@
         <v>210</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="3" t="s">
@@ -3629,10 +3668,10 @@
         <v>211</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>211</v>
+        <v>332</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>211</v>
+        <v>332</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="3" t="s">
@@ -3991,10 +4030,10 @@
         <v>212</v>
       </c>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>333</v>
       </c>
       <c r="D99" t="s">
-        <v>212</v>
+        <v>333</v>
       </c>
       <c r="F99" t="s">
         <v>176</v>
@@ -4008,10 +4047,10 @@
         <v>213</v>
       </c>
       <c r="C100" t="s">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="D100" t="s">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="F100" t="s">
         <v>176</v>
@@ -4042,10 +4081,10 @@
         <v>214</v>
       </c>
       <c r="C102" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="D102" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="F102" t="s">
         <v>176</v>
@@ -4161,10 +4200,10 @@
         <v>215</v>
       </c>
       <c r="C109" t="s">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="D109" t="s">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="F109" t="s">
         <v>176</v>
@@ -4178,10 +4217,10 @@
         <v>216</v>
       </c>
       <c r="C110" t="s">
-        <v>216</v>
+        <v>337</v>
       </c>
       <c r="D110" t="s">
-        <v>216</v>
+        <v>337</v>
       </c>
       <c r="F110" t="s">
         <v>176</v>
@@ -4195,10 +4234,10 @@
         <v>217</v>
       </c>
       <c r="C111" t="s">
-        <v>217</v>
+        <v>338</v>
       </c>
       <c r="D111" t="s">
-        <v>217</v>
+        <v>338</v>
       </c>
       <c r="F111" t="s">
         <v>176</v>
@@ -4212,10 +4251,10 @@
         <v>218</v>
       </c>
       <c r="C112" t="s">
-        <v>218</v>
+        <v>339</v>
       </c>
       <c r="D112" t="s">
-        <v>218</v>
+        <v>339</v>
       </c>
       <c r="F112" t="s">
         <v>176</v>
@@ -4297,10 +4336,10 @@
         <v>219</v>
       </c>
       <c r="C117" t="s">
-        <v>219</v>
+        <v>340</v>
       </c>
       <c r="D117" t="s">
-        <v>219</v>
+        <v>340</v>
       </c>
       <c r="F117" t="s">
         <v>176</v>
@@ -6765,10 +6804,10 @@
         <v>140</v>
       </c>
       <c r="C264" t="s">
-        <v>260</v>
+        <v>341</v>
       </c>
       <c r="D264" t="s">
-        <v>260</v>
+        <v>341</v>
       </c>
       <c r="F264" t="s">
         <v>149</v>
@@ -6782,10 +6821,10 @@
         <v>141</v>
       </c>
       <c r="C265" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D265" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F265" t="s">
         <v>149</v>
@@ -6799,10 +6838,10 @@
         <v>142</v>
       </c>
       <c r="C266" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D266" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F266" t="s">
         <v>149</v>
@@ -6816,10 +6855,10 @@
         <v>143</v>
       </c>
       <c r="C267" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D267" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F267" t="s">
         <v>149</v>
@@ -6833,10 +6872,10 @@
         <v>144</v>
       </c>
       <c r="C268" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D268" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F268" t="s">
         <v>149</v>
@@ -6850,10 +6889,10 @@
         <v>145</v>
       </c>
       <c r="C269" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D269" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F269" t="s">
         <v>149</v>
@@ -6867,10 +6906,10 @@
         <v>146</v>
       </c>
       <c r="C270" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D270" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F270" t="s">
         <v>149</v>
@@ -6884,10 +6923,10 @@
         <v>147</v>
       </c>
       <c r="C271" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D271" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F271" t="s">
         <v>149</v>
@@ -6901,10 +6940,10 @@
         <v>148</v>
       </c>
       <c r="C272" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D272" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F272" t="s">
         <v>149</v>
@@ -6918,10 +6957,10 @@
         <v>149</v>
       </c>
       <c r="C273" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D273" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F273" t="s">
         <v>149</v>
@@ -6935,10 +6974,10 @@
         <v>150</v>
       </c>
       <c r="C274" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D274" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F274" t="s">
         <v>149</v>
@@ -6952,10 +6991,10 @@
         <v>151</v>
       </c>
       <c r="C275" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D275" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F275" t="s">
         <v>149</v>
@@ -6969,10 +7008,10 @@
         <v>152</v>
       </c>
       <c r="C276" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D276" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F276" t="s">
         <v>149</v>
@@ -6986,10 +7025,10 @@
         <v>153</v>
       </c>
       <c r="C277" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="D277" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="F277" t="s">
         <v>149</v>
@@ -7003,10 +7042,10 @@
         <v>154</v>
       </c>
       <c r="C278" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D278" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F278" t="s">
         <v>149</v>
@@ -7020,10 +7059,10 @@
         <v>155</v>
       </c>
       <c r="C279" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D279" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F279" t="s">
         <v>149</v>
@@ -7037,10 +7076,10 @@
         <v>156</v>
       </c>
       <c r="C280" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D280" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F280" t="s">
         <v>149</v>
@@ -7054,10 +7093,10 @@
         <v>157</v>
       </c>
       <c r="C281" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D281" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F281" t="s">
         <v>149</v>
@@ -7071,10 +7110,10 @@
         <v>158</v>
       </c>
       <c r="C282" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D282" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F282" t="s">
         <v>149</v>
@@ -7088,10 +7127,10 @@
         <v>159</v>
       </c>
       <c r="C283" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D283" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F283" t="s">
         <v>149</v>
@@ -7105,10 +7144,10 @@
         <v>160</v>
       </c>
       <c r="C284" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D284" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F284" t="s">
         <v>149</v>
@@ -7122,10 +7161,10 @@
         <v>161</v>
       </c>
       <c r="C285" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="D285" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="F285" t="s">
         <v>149</v>
@@ -7139,10 +7178,10 @@
         <v>162</v>
       </c>
       <c r="C286" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D286" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F286" t="s">
         <v>149</v>
@@ -7156,10 +7195,10 @@
         <v>163</v>
       </c>
       <c r="C287" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="D287" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="F287" t="s">
         <v>149</v>
@@ -7173,10 +7212,10 @@
         <v>164</v>
       </c>
       <c r="C288" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D288" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F288" t="s">
         <v>149</v>
@@ -7190,10 +7229,10 @@
         <v>165</v>
       </c>
       <c r="C289" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D289" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F289" t="s">
         <v>149</v>
@@ -7207,10 +7246,10 @@
         <v>166</v>
       </c>
       <c r="C290" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D290" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F290" t="s">
         <v>149</v>
@@ -7224,10 +7263,10 @@
         <v>167</v>
       </c>
       <c r="C291" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D291" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F291" t="s">
         <v>149</v>
@@ -7241,10 +7280,10 @@
         <v>168</v>
       </c>
       <c r="C292" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D292" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F292" t="s">
         <v>149</v>
@@ -7258,10 +7297,10 @@
         <v>169</v>
       </c>
       <c r="C293" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D293" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F293" t="s">
         <v>176</v>
@@ -7275,10 +7314,10 @@
         <v>170</v>
       </c>
       <c r="C294" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D294" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F294" t="s">
         <v>176</v>
@@ -7292,10 +7331,10 @@
         <v>171</v>
       </c>
       <c r="C295" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D295" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F295" t="s">
         <v>176</v>
@@ -7309,10 +7348,10 @@
         <v>172</v>
       </c>
       <c r="C296" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D296" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F296" t="s">
         <v>176</v>
@@ -7326,10 +7365,10 @@
         <v>173</v>
       </c>
       <c r="C297" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D297" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F297" t="s">
         <v>176</v>
@@ -7343,10 +7382,10 @@
         <v>174</v>
       </c>
       <c r="C298" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D298" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F298" t="s">
         <v>176</v>
@@ -7360,10 +7399,10 @@
         <v>175</v>
       </c>
       <c r="C299" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D299" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F299" t="s">
         <v>176</v>
@@ -7377,10 +7416,10 @@
         <v>176</v>
       </c>
       <c r="C300" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D300" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F300" t="s">
         <v>176</v>
@@ -7394,10 +7433,10 @@
         <v>177</v>
       </c>
       <c r="C301" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D301" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F301" t="s">
         <v>176</v>
@@ -7411,10 +7450,10 @@
         <v>178</v>
       </c>
       <c r="C302" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D302" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F302" t="s">
         <v>176</v>
@@ -7428,10 +7467,10 @@
         <v>179</v>
       </c>
       <c r="C303" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D303" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F303" t="s">
         <v>176</v>
@@ -7445,10 +7484,10 @@
         <v>180</v>
       </c>
       <c r="C304" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D304" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F304" t="s">
         <v>176</v>
@@ -7462,10 +7501,10 @@
         <v>181</v>
       </c>
       <c r="C305" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D305" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F305" t="s">
         <v>176</v>
@@ -7479,10 +7518,10 @@
         <v>182</v>
       </c>
       <c r="C306" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D306" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F306" t="s">
         <v>176</v>
@@ -7496,10 +7535,10 @@
         <v>183</v>
       </c>
       <c r="C307" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D307" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F307" t="s">
         <v>176</v>
@@ -7513,10 +7552,10 @@
         <v>184</v>
       </c>
       <c r="C308" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="D308" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="F308" t="s">
         <v>176</v>
@@ -7530,10 +7569,10 @@
         <v>185</v>
       </c>
       <c r="C309" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="D309" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="F309" t="s">
         <v>176</v>
@@ -7547,10 +7586,10 @@
         <v>186</v>
       </c>
       <c r="C310" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D310" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F310" t="s">
         <v>176</v>
@@ -7564,10 +7603,10 @@
         <v>187</v>
       </c>
       <c r="C311" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="D311" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="F311" t="s">
         <v>176</v>
@@ -7581,10 +7620,10 @@
         <v>188</v>
       </c>
       <c r="C312" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D312" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F312" t="s">
         <v>176</v>
@@ -7598,10 +7637,10 @@
         <v>189</v>
       </c>
       <c r="C313" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D313" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F313" t="s">
         <v>176</v>
@@ -7615,10 +7654,10 @@
         <v>190</v>
       </c>
       <c r="C314" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D314" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F314" t="s">
         <v>176</v>
@@ -7632,10 +7671,10 @@
         <v>191</v>
       </c>
       <c r="C315" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D315" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F315" t="s">
         <v>176</v>
@@ -7649,10 +7688,10 @@
         <v>192</v>
       </c>
       <c r="C316" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D316" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F316" t="s">
         <v>176</v>
@@ -7666,10 +7705,10 @@
         <v>193</v>
       </c>
       <c r="C317" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D317" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F317" t="s">
         <v>176</v>
@@ -7683,10 +7722,10 @@
         <v>194</v>
       </c>
       <c r="C318" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="D318" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="F318" t="s">
         <v>176</v>
@@ -7700,10 +7739,10 @@
         <v>195</v>
       </c>
       <c r="C319" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="D319" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="F319" t="s">
         <v>176</v>
@@ -7717,10 +7756,10 @@
         <v>196</v>
       </c>
       <c r="C320" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="D320" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="F320" t="s">
         <v>176</v>
@@ -7734,10 +7773,10 @@
         <v>197</v>
       </c>
       <c r="C321" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="D321" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="F321" t="s">
         <v>176</v>
@@ -7751,10 +7790,10 @@
         <v>198</v>
       </c>
       <c r="C322" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D322" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="F322" t="s">
         <v>176</v>
@@ -7768,10 +7807,10 @@
         <v>199</v>
       </c>
       <c r="C323" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D323" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F323" t="s">
         <v>176</v>
@@ -7785,10 +7824,10 @@
         <v>200</v>
       </c>
       <c r="C324" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D324" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F324" t="s">
         <v>176</v>
@@ -7802,10 +7841,10 @@
         <v>201</v>
       </c>
       <c r="C325" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D325" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F325" t="s">
         <v>176</v>
@@ -7819,10 +7858,10 @@
         <v>202</v>
       </c>
       <c r="C326" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="D326" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="F326" t="s">
         <v>176</v>
@@ -7869,7 +7908,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s">
         <v>107</v>
